--- a/PPU/LAB1/data.xlsx
+++ b/PPU/LAB1/data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\University\PPU\LAB1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0900B930-79AF-4F1E-8FF3-B237458F8E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -141,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -453,18 +447,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,10 +527,14 @@
         <v>20</v>
       </c>
       <c r="H2">
-        <v>146.6</v>
+        <f>J2/2</f>
+        <v>73.3</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
+      </c>
+      <c r="J2">
+        <v>146.6</v>
       </c>
       <c r="K2">
         <f>K1/L1</f>
@@ -547,6 +545,10 @@
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="0">J3/2</f>
+        <v>0</v>
+      </c>
       <c r="K3">
         <f>$K$2*L3</f>
         <v>133.33333333333331</v>
@@ -577,11 +579,15 @@
       <c r="G4" s="2">
         <v>11</v>
       </c>
-      <c r="H4" s="2">
-        <v>120</v>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="J4" s="2">
+        <v>120</v>
       </c>
       <c r="K4">
         <f>$K$2*L4</f>
@@ -614,10 +620,14 @@
         <v>22.5</v>
       </c>
       <c r="H5">
-        <v>146.6</v>
+        <f t="shared" si="0"/>
+        <v>73.3</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
+      </c>
+      <c r="J5">
+        <v>146.6</v>
       </c>
       <c r="K5">
         <f>$K$2*L5</f>
@@ -649,11 +659,15 @@
       <c r="G6" s="2">
         <v>15</v>
       </c>
-      <c r="H6" s="2">
-        <v>120</v>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="J6" s="2">
+        <v>120</v>
       </c>
       <c r="K6">
         <f>$K$2*L6</f>
@@ -686,10 +700,14 @@
         <v>25</v>
       </c>
       <c r="H7">
-        <v>140</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
+      </c>
+      <c r="J7">
+        <v>140</v>
       </c>
       <c r="K7">
         <f>$K$2*L7</f>
@@ -721,11 +739,15 @@
       <c r="G8" s="2">
         <v>20.5</v>
       </c>
-      <c r="H8" s="2">
-        <v>146.6</v>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>73.3</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="J8" s="2">
+        <v>146.6</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -751,10 +773,14 @@
         <v>20.5</v>
       </c>
       <c r="H9">
-        <v>160</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
+      </c>
+      <c r="J9">
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -832,7 +858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -852,7 +878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -872,7 +898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -892,7 +918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -910,6 +936,70 @@
       </c>
       <c r="F20" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PPU/LAB1/data.xlsx
+++ b/PPU/LAB1/data.xlsx
@@ -1,15 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\University\PPU\LAB1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F9C29-BA2C-4935-B502-C83B69A62E3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$15:$A$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$14</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$15:$B$20</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>POS</t>
   </si>
@@ -122,20 +133,11 @@
   <si>
     <t>СИНУС</t>
   </si>
-  <si>
-    <t>ДЕЛИ НА ПОПОЛАМ ТО</t>
-  </si>
-  <si>
-    <t>ЧТО ВЫШЕ</t>
-  </si>
-  <si>
-    <t>^^^^^^^^^</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -190,6 +192,2857 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iк</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C9B-435C-A5CF-8641E1488710}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="356186096"/>
+        <c:axId val="355308400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="356186096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355308400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="355308400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356186096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iк1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7390-42E6-9965-25480FF3515D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="543906928"/>
+        <c:axId val="437420096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="543906928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437420096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="437420096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543906928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uн</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F390-4A32-8535-962E940B0852}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="438852976"/>
+        <c:axId val="438583776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="438852976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438583776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="438583776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438852976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>300404</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>387570</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C441A7A9-78FE-407A-ACE8-F53014240F3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406645</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>112101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>113568</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>188301</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED104C0-A95B-4BF9-AEA4-4465CDA7E8C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289413</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>399317</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C16D1C2-681F-4DF2-826B-51BD31B1F74E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,23 +3300,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" customWidth="1"/>
@@ -783,21 +3637,6 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
@@ -1005,5 +3844,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>